--- a/Debug Test Set CPP.xlsx
+++ b/Debug Test Set CPP.xlsx
@@ -115,10 +115,10 @@
     <t>debugCompilationError</t>
   </si>
   <si>
-    <t>debugRuntimeError</t>
+    <t>debugInfiniteRecursion</t>
   </si>
   <si>
-    <t>debugTimeoutError</t>
+    <t>debugInfiniteLoop</t>
   </si>
   <si>
     <t>debugFileNotFoundError</t>
